--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/COLORADO_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/COLORADO_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1382"/>
+  <dimension ref="A1:D1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C33">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C38">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C55">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C64">
@@ -1511,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="D86">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="87">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C102">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C113">
@@ -1894,7 +1894,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C116">
@@ -2232,7 +2232,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C142">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C143">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C144">
@@ -2362,7 +2362,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C152">
@@ -2562,7 +2562,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C167">
@@ -2749,7 +2749,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C181">
@@ -2775,7 +2775,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2832,7 +2832,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C187">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C202">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C216">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C220">
@@ -3357,7 +3357,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C227">
@@ -3370,7 +3370,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C228">
@@ -3383,7 +3383,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C229">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C230">
@@ -3526,12 +3526,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C240">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C243">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C248">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C254">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C260">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C265">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C266">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C277">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C285">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C286">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C288">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C290">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C298">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C306">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C312">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C313">
@@ -4615,7 +4615,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C323">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C324">
@@ -4641,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C325">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C333">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C337">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C345">
@@ -4966,7 +4966,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C350">
@@ -4992,14 +4992,14 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C352">
         <v>19</v>
       </c>
       <c r="D352">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="353">
@@ -5018,7 +5018,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C354">
@@ -5031,7 +5031,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C355">
@@ -5083,7 +5083,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C359">
@@ -5142,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="D363">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="364">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C365">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C368">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C372">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C373">
@@ -5290,13 +5290,13 @@
         <v>19</v>
       </c>
       <c r="D374">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C375">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C376">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C377">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C378">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C383">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C384">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C389">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C395">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C396">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C398">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C401">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C404">
@@ -5842,14 +5842,14 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C417">
         <v>19</v>
       </c>
       <c r="D417">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="418">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C419">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C421">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C423">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C426">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C427">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C442">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C446">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C450">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C452">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C455">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C460">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C461">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C462">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C464">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C465">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C470">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C472">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C473">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C475">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C480">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C481">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C482">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C488">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C491">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C494">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C496">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C502">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C507">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C515">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C523">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C527">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C533">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C539">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C544">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C546">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C548">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C550">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C552">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C556">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C560">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C561">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C563">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C564">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C576">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C578">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C579">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C584">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C585">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C588">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C589">
@@ -8366,7 +8366,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C610">
@@ -8893,7 +8893,7 @@
         <v>19</v>
       </c>
       <c r="D650">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="651">
@@ -9159,14 +9159,14 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C671">
         <v>19</v>
       </c>
       <c r="D671">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="672">
@@ -9476,7 +9476,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C695">
@@ -9606,7 +9606,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C705">
@@ -9684,7 +9684,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C711">
@@ -9697,7 +9697,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C712">
@@ -9762,7 +9762,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C717">
@@ -9819,7 +9819,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C721">
@@ -9832,7 +9832,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C722">
@@ -9884,7 +9884,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C726">
@@ -9956,7 +9956,7 @@
         <v>19</v>
       </c>
       <c r="D731">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="732">
@@ -9975,7 +9975,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C733">
@@ -10097,7 +10097,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C742">
@@ -10214,7 +10214,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C751">
@@ -10266,7 +10266,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C755">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C758">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C761">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C764">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C765">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C769">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C771">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C772">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C778">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C780">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C782">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C783">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C784">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C786">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C790">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C808">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C828">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C832">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C843">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C855">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C865">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C885">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C886">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C888">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C890">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C892">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C895">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C896">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C900">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C914">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C925">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C932">
@@ -12590,7 +12590,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C933">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C937">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C940">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C951">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C961">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C964">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C965">
@@ -13058,7 +13058,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C969">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C975">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C976">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C980">
@@ -13227,7 +13227,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C982">
@@ -13292,7 +13292,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C987">
@@ -13409,7 +13409,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C996">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1009">
@@ -13609,7 +13609,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1011">
@@ -13661,7 +13661,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1015">
@@ -13674,7 +13674,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1016">
@@ -13700,7 +13700,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1018">
@@ -13739,7 +13739,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1021">
@@ -13879,7 +13879,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1031">
@@ -13983,7 +13983,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1039">
@@ -14048,7 +14048,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1044">
@@ -14113,7 +14113,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1049">
@@ -14139,7 +14139,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1051">
@@ -14191,7 +14191,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1055">
@@ -14230,7 +14230,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1058">
@@ -14243,7 +14243,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1059">
@@ -14256,7 +14256,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1060">
@@ -14269,7 +14269,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1061">
@@ -14864,7 +14864,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1106">
@@ -14955,7 +14955,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1113">
@@ -15103,7 +15103,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1124">
@@ -15420,7 +15420,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1148">
@@ -15440,7 +15440,7 @@
         <v>19</v>
       </c>
       <c r="D1149">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="1150">
@@ -15594,7 +15594,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1161">
@@ -15633,7 +15633,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1164">
@@ -15646,7 +15646,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1165">
@@ -15672,7 +15672,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1167">
@@ -15724,7 +15724,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1171">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1189">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1191">
@@ -16067,7 +16067,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1197">
@@ -16093,7 +16093,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1199">
@@ -16236,7 +16236,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1210">
@@ -16418,7 +16418,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1224">
@@ -16431,7 +16431,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1225">
@@ -16470,7 +16470,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1228">
@@ -16483,7 +16483,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1229">
@@ -16587,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1237">
@@ -16626,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1240">
@@ -16639,7 +16639,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1241">
@@ -16678,7 +16678,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1244">
@@ -16704,7 +16704,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1246">
@@ -16886,7 +16886,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1260">
@@ -16899,7 +16899,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1261">
@@ -16951,7 +16951,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1265">
@@ -17068,7 +17068,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1274">
@@ -17315,7 +17315,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1293">
@@ -17406,7 +17406,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1300">
@@ -17780,7 +17780,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1328">
@@ -17806,7 +17806,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1330">
@@ -17878,7 +17878,7 @@
         <v>19</v>
       </c>
       <c r="D1335">
-        <v>0.0009388279474256349</v>
+        <v>0.0009388279474256348</v>
       </c>
     </row>
     <row r="1336">
@@ -17949,7 +17949,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1341">
@@ -18040,7 +18040,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1348">
@@ -18092,7 +18092,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1352">
@@ -18105,7 +18105,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1353">
@@ -18248,7 +18248,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1364">
@@ -18261,7 +18261,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1365">
@@ -18274,7 +18274,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1366">
@@ -18313,7 +18313,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1369">
@@ -18412,41 +18412,6 @@
       </c>
       <c r="D1376">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
